--- a/nerdle_output_pairwise_20230731.xlsx
+++ b/nerdle_output_pairwise_20230731.xlsx
@@ -514,40 +514,40 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9999992599999999</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35096998</v>
+        <v>0.351</v>
       </c>
       <c r="E2" t="n">
-        <v>0.051351</v>
+        <v>0.0514</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91787166</v>
+        <v>0.9179</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00208945</v>
+        <v>0.0021</v>
       </c>
       <c r="H2" t="n">
-        <v>0.51699931</v>
+        <v>0.517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.99991198</v>
+        <v>0.9999</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8e-07</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8715822</v>
+        <v>0.8716</v>
       </c>
       <c r="L2" t="n">
-        <v>0.99996944</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.30897278</v>
+        <v>0.309</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1452514</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="3">
@@ -557,41 +557,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999992599999999</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0.99999951</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997593</v>
+        <v>0.9998</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99283044</v>
+        <v>0.9928</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7267678</v>
+        <v>0.7268</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9988073</v>
+        <v>0.9988</v>
       </c>
       <c r="I3" t="n">
-        <v>0.99999987</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.12580072</v>
+        <v>0.1258</v>
       </c>
       <c r="K3" t="n">
-        <v>0.99977166</v>
+        <v>0.9998</v>
       </c>
       <c r="L3" t="n">
-        <v>0.99997759</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.84139709</v>
+        <v>0.8414</v>
       </c>
       <c r="N3" t="n">
-        <v>0.24489796</v>
+        <v>0.2449</v>
       </c>
     </row>
     <row r="4">
@@ -601,41 +601,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.35096998</v>
+        <v>0.351</v>
       </c>
       <c r="C4" t="n">
-        <v>0.99999951</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.68515965</v>
+        <v>0.6852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06459015</v>
+        <v>0.0646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21558235</v>
+        <v>0.2156</v>
       </c>
       <c r="H4" t="n">
-        <v>0.89765969</v>
+        <v>0.8977000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6891947899999999</v>
+        <v>0.6892</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00034941</v>
+        <v>0.0003</v>
       </c>
       <c r="K4" t="n">
-        <v>0.66399777</v>
+        <v>0.664</v>
       </c>
       <c r="L4" t="n">
-        <v>0.71759073</v>
+        <v>0.7176</v>
       </c>
       <c r="M4" t="n">
-        <v>0.71023934</v>
+        <v>0.7102000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.15026834</v>
+        <v>0.1503</v>
       </c>
     </row>
     <row r="5">
@@ -645,41 +645,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.051351</v>
+        <v>0.0514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9997593</v>
+        <v>0.9998</v>
       </c>
       <c r="D5" t="n">
-        <v>0.68515965</v>
+        <v>0.6852</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.0055415</v>
+        <v>0.0055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.54143679</v>
+        <v>0.5414</v>
       </c>
       <c r="H5" t="n">
-        <v>0.93451542</v>
+        <v>0.9345</v>
       </c>
       <c r="I5" t="n">
-        <v>0.16028745</v>
+        <v>0.1603</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00536221</v>
+        <v>0.0054</v>
       </c>
       <c r="K5" t="n">
-        <v>0.32623538</v>
+        <v>0.3262</v>
       </c>
       <c r="L5" t="n">
-        <v>0.18525789</v>
+        <v>0.1853</v>
       </c>
       <c r="M5" t="n">
-        <v>0.92165557</v>
+        <v>0.9217</v>
       </c>
       <c r="N5" t="n">
-        <v>0.23880597</v>
+        <v>0.2388</v>
       </c>
     </row>
     <row r="6">
@@ -689,41 +689,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.91787166</v>
+        <v>0.9179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.99283044</v>
+        <v>0.9928</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06459015</v>
+        <v>0.0646</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0055415</v>
+        <v>0.0055</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.00011168</v>
+        <v>0.0001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12340655</v>
+        <v>0.1234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.94423908</v>
+        <v>0.9442</v>
       </c>
       <c r="J6" t="n">
-        <v>1e-08</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.99847277</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.54431473</v>
+        <v>0.5443</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08642923</v>
+        <v>0.0864</v>
       </c>
       <c r="N6" t="n">
-        <v>0.13011152</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="7">
@@ -733,41 +733,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00208945</v>
+        <v>0.0021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7267678</v>
+        <v>0.7268</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21558235</v>
+        <v>0.2156</v>
       </c>
       <c r="E7" t="n">
-        <v>0.54143679</v>
+        <v>0.5414</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00011168</v>
+        <v>0.0001</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.15232674</v>
+        <v>0.1523</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01210623</v>
+        <v>0.0121</v>
       </c>
       <c r="J7" t="n">
-        <v>0.11096456</v>
+        <v>0.111</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06456865000000001</v>
+        <v>0.0646</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01678241</v>
+        <v>0.0168</v>
       </c>
       <c r="M7" t="n">
-        <v>0.79364037</v>
+        <v>0.7936</v>
       </c>
       <c r="N7" t="n">
-        <v>0.28256071</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="8">
@@ -777,41 +777,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.51699931</v>
+        <v>0.517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9988073</v>
+        <v>0.9988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.89765969</v>
+        <v>0.8977000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.93451542</v>
+        <v>0.9345</v>
       </c>
       <c r="F8" t="n">
-        <v>0.12340655</v>
+        <v>0.1234</v>
       </c>
       <c r="G8" t="n">
-        <v>0.15232674</v>
+        <v>0.1523</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.84237498</v>
+        <v>0.8424</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00032884</v>
+        <v>0.0003</v>
       </c>
       <c r="K8" t="n">
-        <v>0.81529935</v>
+        <v>0.8153</v>
       </c>
       <c r="L8" t="n">
-        <v>0.85825555</v>
+        <v>0.8583</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5359253</v>
+        <v>0.5359</v>
       </c>
       <c r="N8" t="n">
-        <v>0.19789474</v>
+        <v>0.1979</v>
       </c>
     </row>
     <row r="9">
@@ -821,41 +821,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.99991198</v>
+        <v>0.9999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.99999987</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6891947899999999</v>
+        <v>0.6892</v>
       </c>
       <c r="E9" t="n">
-        <v>0.16028745</v>
+        <v>0.1603</v>
       </c>
       <c r="F9" t="n">
-        <v>0.94423908</v>
+        <v>0.9442</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01210623</v>
+        <v>0.0121</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84237498</v>
+        <v>0.8424</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>3.88e-06</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.95768959</v>
+        <v>0.9577</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9957211</v>
+        <v>0.9957</v>
       </c>
       <c r="M9" t="n">
-        <v>0.35665448</v>
+        <v>0.3567</v>
       </c>
       <c r="N9" t="n">
-        <v>0.17840376</v>
+        <v>0.1784</v>
       </c>
     </row>
     <row r="10">
@@ -865,41 +865,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.8e-07</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.12580072</v>
+        <v>0.1258</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00034941</v>
+        <v>0.0003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00536221</v>
+        <v>0.0054</v>
       </c>
       <c r="F10" t="n">
-        <v>1e-08</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.11096456</v>
+        <v>0.111</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00032884</v>
+        <v>0.0003</v>
       </c>
       <c r="I10" t="n">
-        <v>3.88e-06</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>0.00071437</v>
+        <v>0.0007</v>
       </c>
       <c r="L10" t="n">
-        <v>7.679999999999999e-06</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04588238</v>
+        <v>0.0459</v>
       </c>
       <c r="N10" t="n">
-        <v>0.34328358</v>
+        <v>0.3433</v>
       </c>
     </row>
     <row r="11">
@@ -909,41 +909,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8715822</v>
+        <v>0.8716</v>
       </c>
       <c r="C11" t="n">
-        <v>0.99977166</v>
+        <v>0.9998</v>
       </c>
       <c r="D11" t="n">
-        <v>0.66399777</v>
+        <v>0.664</v>
       </c>
       <c r="E11" t="n">
-        <v>0.32623538</v>
+        <v>0.3262</v>
       </c>
       <c r="F11" t="n">
-        <v>0.99847277</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06456865000000001</v>
+        <v>0.0646</v>
       </c>
       <c r="H11" t="n">
-        <v>0.81529935</v>
+        <v>0.8153</v>
       </c>
       <c r="I11" t="n">
-        <v>0.95768959</v>
+        <v>0.9577</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00071437</v>
+        <v>0.0007</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.6092218</v>
+        <v>0.6092</v>
       </c>
       <c r="M11" t="n">
-        <v>0.16528491</v>
+        <v>0.1653</v>
       </c>
       <c r="N11" t="n">
-        <v>0.22018349</v>
+        <v>0.2202</v>
       </c>
     </row>
     <row r="12">
@@ -953,41 +953,41 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.99996944</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.99997759</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.71759073</v>
+        <v>0.7176</v>
       </c>
       <c r="E12" t="n">
-        <v>0.18525789</v>
+        <v>0.1853</v>
       </c>
       <c r="F12" t="n">
-        <v>0.54431473</v>
+        <v>0.5443</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01678241</v>
+        <v>0.0168</v>
       </c>
       <c r="H12" t="n">
-        <v>0.85825555</v>
+        <v>0.8583</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9957211</v>
+        <v>0.9957</v>
       </c>
       <c r="J12" t="n">
-        <v>7.679999999999999e-06</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6092218</v>
+        <v>0.6092</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>0.53253849</v>
+        <v>0.5325</v>
       </c>
       <c r="N12" t="n">
-        <v>0.15384615</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="13">
@@ -997,41 +997,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.30897278</v>
+        <v>0.309</v>
       </c>
       <c r="C13" t="n">
-        <v>0.84139709</v>
+        <v>0.8414</v>
       </c>
       <c r="D13" t="n">
-        <v>0.71023934</v>
+        <v>0.7102000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.92165557</v>
+        <v>0.9217</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08642923</v>
+        <v>0.0864</v>
       </c>
       <c r="G13" t="n">
-        <v>0.79364037</v>
+        <v>0.7936</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5359253</v>
+        <v>0.5359</v>
       </c>
       <c r="I13" t="n">
-        <v>0.35665448</v>
+        <v>0.3567</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04588238</v>
+        <v>0.0459</v>
       </c>
       <c r="K13" t="n">
-        <v>0.16528491</v>
+        <v>0.1653</v>
       </c>
       <c r="L13" t="n">
-        <v>0.53253849</v>
+        <v>0.5325</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>0.17894737</v>
+        <v>0.1789</v>
       </c>
     </row>
     <row r="14">
@@ -1041,40 +1041,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1452514</v>
+        <v>0.1453</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24489796</v>
+        <v>0.2449</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15026834</v>
+        <v>0.1503</v>
       </c>
       <c r="E14" t="n">
-        <v>0.23880597</v>
+        <v>0.2388</v>
       </c>
       <c r="F14" t="n">
-        <v>0.13011152</v>
+        <v>0.1301</v>
       </c>
       <c r="G14" t="n">
-        <v>0.28256071</v>
+        <v>0.2826</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19789474</v>
+        <v>0.1979</v>
       </c>
       <c r="I14" t="n">
-        <v>0.17840376</v>
+        <v>0.1784</v>
       </c>
       <c r="J14" t="n">
-        <v>0.34328358</v>
+        <v>0.3433</v>
       </c>
       <c r="K14" t="n">
-        <v>0.22018349</v>
+        <v>0.2202</v>
       </c>
       <c r="L14" t="n">
-        <v>0.15384615</v>
+        <v>0.1538</v>
       </c>
       <c r="M14" t="n">
-        <v>0.17894737</v>
+        <v>0.1789</v>
       </c>
       <c r="N14" t="inlineStr"/>
     </row>
